--- a/cv_dat2.xlsx
+++ b/cv_dat2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="189">
   <si>
     <t>section</t>
   </si>
@@ -214,6 +214,9 @@
     <t xml:space="preserve">Perform secondary data analysis research on influenza antibodies as correlates of protection and apply protection probability curves to vaccine immunogenicity data to assess and compare vaccine efficacy. </t>
   </si>
   <si>
+    <t xml:space="preserve">Compile recorded influenza seasonal vaccine and circulating strains to obtain yearly antigenic distance and assess impact of that distance on vaccine effectiveness. </t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -226,7 +229,10 @@
     <t xml:space="preserve">Use bayesian modeling approaches to answer complex research questions with human clinical trial data. </t>
   </si>
   <si>
-    <t>Research Epidemiologist, Public Health Data Management and Analysis ORISE Fellow</t>
+    <t xml:space="preserve">Coordinate weekly Infectious Disease Interest Group meetings, to include finding and scheduling speakers, moderating meetings, and communicate with members and potential members about upcoming meetings and ways to get involved. </t>
+  </si>
+  <si>
+    <t>Epidemiology SWEP Volunteer, Public Health Data Management and Analysis ORISE Fellow</t>
   </si>
   <si>
     <t>Atlanta, GA</t>
@@ -235,7 +241,7 @@
     <t>Centers for Disease Control and Prevention, National Center on Birth Defects and Developmental Disabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Support the MAT-LINK (MATernaL and Infant NetworK to Understand Outcomes Associated with Medication for Opioid Use Disorder during Pregnancy) team as SWEP (Student Worksite Experience Program) volunteer July 2022-Juli 2023 and ORISE Fellow July-September 2023. </t>
+    <t xml:space="preserve">Support the MAT-LINK (MATernaL and Infant NetworK to Understand Outcomes Associated with Medication for Opioid Use Disorder during Pregnancy) team as SWEP (Student Worksite Experience Program) volunteer July 2022-July 2023, October 2023-Present and ORISE Fellow July-September 2023. </t>
   </si>
   <si>
     <t>Conduct data cleaning, analysis, and management using statistical software (e.g. R, SAS, etc.), and interpretation.</t>
@@ -295,6 +301,18 @@
     <t>service</t>
   </si>
   <si>
+    <t>Teaching Assistant</t>
+  </si>
+  <si>
+    <t>Department of Epidemiology &amp; Biostatistics Linear Regression Seminar</t>
+  </si>
+  <si>
+    <t>October 2023</t>
+  </si>
+  <si>
+    <t>Aided in planning and teaching of three one-hour seminars covering the basics of linear regression aimed at assisting first-year PhD students in meeting departmental biostatistics standards.</t>
+  </si>
+  <si>
     <t>Lightning Talk Judge</t>
   </si>
   <si>
@@ -367,22 +385,40 @@
     <t>Comparing standard- and high-dose Fluzone vaccine efficacy across seasons and strains</t>
   </si>
   <si>
+    <t>MIDAS Annual Meeting</t>
+  </si>
+  <si>
+    <t>Lightning talk and poster presentation on use of HAI-protection curve to predict influenza vaccine efficacy (VE) using immunologic data in the absence of infection outcomes and comparing theoretical VEs of standard- and high-dose influenza vaccination. Focus on quantitave modeling methodology and comparison of theoretical VEs to CDC-reported seasonal VEs.</t>
+  </si>
+  <si>
+    <t>RMarkdown Introduction and Tutorial</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>Division of Birth Defects and Infant Disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented on the basics of RMarkdown and its benefits to a combined team technical meeting in the National Center for Birth Defects and Developmental Disabilities at CDC. Presentation included what one can do with RMarkdown, descriptions of how to use RMarkdown, examples of previous work done in RMarkdown, and a discussion of how RMarkdown could be used for the teams in the meeting. </t>
+  </si>
+  <si>
     <t>CIVICs Annual Meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">Oral presentation on use of HAI-protection curve to predict influenza vaccine effectiveness (VE) using immunogenicity data in the absence of infection outcomes and comparing theoretical VEs of standard- and high-dose influenza vaccination. </t>
+    <t xml:space="preserve">Oral presentation on use of HAI-protection curve to predict influenza vaccine efficacy (VE) using immunogenicity data in the absence of infection outcomes and comparing theoretical VEs of standard- and high-dose influenza vaccination. </t>
   </si>
   <si>
     <t>HIV Tests and Diagnoses During Pregnancy Among People with Opioid Use Disorder</t>
   </si>
   <si>
+    <t>IDSOG Annual Meeting</t>
+  </si>
+  <si>
     <t>ORISE (CDC)</t>
   </si>
   <si>
-    <t>IDSOG Annual Meeting</t>
-  </si>
-  <si>
-    <t>Poster presenting results on associations between prenatal care and medication for opioid use disorder and HIV testing, positivity, and control in pregnancy people with HIV.</t>
+    <t>Poster presentation of results on associations between prenatal care and medication for opioid use disorder and HIV testing, positivity, and control in pregnancy people with HIV.</t>
   </si>
   <si>
     <t>Challenge Study Ethics</t>
@@ -404,6 +440,12 @@
   </si>
   <si>
     <t>honors_awards</t>
+  </si>
+  <si>
+    <t>Graduate Research Assistantship, Tuition Waiver and Stipend</t>
+  </si>
+  <si>
+    <t>Center for Influenza Vaccine Research for High Risk Populations (CIVR-HRP)</t>
   </si>
   <si>
     <t xml:space="preserve">Scholarship, Travel Stipend </t>
@@ -569,7 +611,7 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF1D1D1D"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -668,10 +710,10 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1464,10 +1506,10 @@
         <v>25</v>
       </c>
       <c r="G27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="I27" s="13" t="b">
         <v>1</v>
@@ -1511,10 +1553,10 @@
         <v>25</v>
       </c>
       <c r="G28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="I28" s="13" t="b">
         <v>1</v>
@@ -1542,14 +1584,14 @@
       <c r="A29" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>70</v>
+      <c r="B29" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E29" s="12">
         <v>2022.0</v>
@@ -1558,10 +1600,10 @@
         <v>25</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="I29" s="13" t="b">
         <v>1</v>
@@ -1589,14 +1631,14 @@
       <c r="A30" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>70</v>
+      <c r="B30" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E30" s="12">
         <v>2022.0</v>
@@ -1605,10 +1647,10 @@
         <v>25</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="I30" s="13" t="b">
         <v>1</v>
@@ -1636,14 +1678,14 @@
       <c r="A31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>70</v>
+      <c r="B31" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31" s="12">
         <v>2022.0</v>
@@ -1652,9 +1694,9 @@
         <v>25</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>75</v>
       </c>
       <c r="I31" s="13" t="b">
@@ -1683,14 +1725,14 @@
       <c r="A32" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>70</v>
+      <c r="B32" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="12">
         <v>2022.0</v>
@@ -1699,10 +1741,10 @@
         <v>25</v>
       </c>
       <c r="G32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="I32" s="13" t="b">
         <v>1</v>
@@ -1730,14 +1772,14 @@
       <c r="A33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>70</v>
+      <c r="B33" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E33" s="12">
         <v>2022.0</v>
@@ -1746,10 +1788,10 @@
         <v>25</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I33" s="13" t="b">
         <v>1</v>
@@ -1777,14 +1819,14 @@
       <c r="A34" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>70</v>
+      <c r="B34" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" s="12">
         <v>2022.0</v>
@@ -1793,10 +1835,10 @@
         <v>25</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I34" s="13" t="b">
         <v>1</v>
@@ -1824,29 +1866,32 @@
       <c r="A35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>82</v>
+      <c r="B35" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E35" s="12">
-        <v>2021.0</v>
-      </c>
-      <c r="F35" s="12">
         <v>2022.0</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35" s="19" t="b">
+      <c r="F35" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -1868,29 +1913,32 @@
       <c r="A36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="20">
-        <v>2021.0</v>
-      </c>
-      <c r="F36" s="21">
-        <v>2022.0</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="19" t="b">
+      <c r="H36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="13" t="b">
         <v>1</v>
       </c>
       <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
@@ -1912,24 +1960,24 @@
       <c r="A37" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="20">
-        <v>2016.0</v>
-      </c>
-      <c r="F37" s="21">
-        <v>2016.0</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="I37" s="19" t="b">
         <v>1</v>
@@ -1956,24 +2004,24 @@
       <c r="A38" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>90</v>
+      <c r="B38" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E38" s="20">
-        <v>2016.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F38" s="21">
-        <v>2016.0</v>
+        <v>2022.0</v>
       </c>
       <c r="G38" s="11"/>
-      <c r="H38" s="11" t="s">
-        <v>91</v>
+      <c r="H38" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="I38" s="19" t="b">
         <v>1</v>
@@ -1997,100 +2045,162 @@
       <c r="AA38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="20">
+        <v>2016.0</v>
+      </c>
+      <c r="F39" s="21">
+        <v>2016.0</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+      <c r="Y39" s="14"/>
+      <c r="Z39" s="14"/>
+      <c r="AA39" s="14"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="E40" s="20">
+        <v>2016.0</v>
+      </c>
+      <c r="F40" s="21">
+        <v>2016.0</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="4" t="b">
+      <c r="I40" s="19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="J40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>103</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I41" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="H42" s="9"/>
+      <c r="A42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I43" s="4" t="b">
         <v>1</v>
@@ -2098,131 +2208,118 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="9"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="I44" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H45" s="9"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="C46" s="5" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="4">
-        <v>2019.0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="E46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="I46" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E47" s="4">
-        <v>2019.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E48" s="4">
         <v>2021.0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>12</v>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E49" s="4">
-        <v>2023.0</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>2019.0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2020.0</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="4" t="b">
         <v>1</v>
       </c>
@@ -2231,178 +2328,281 @@
       <c r="A50" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="5"/>
+      <c r="D50" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="E50" s="4">
+        <v>2019.0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2023.0</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50" s="4" t="b">
-        <v>1</v>
+      <c r="E51" s="4">
+        <v>2021.0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2023.0</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="4">
-        <v>2022.0</v>
-      </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="I52" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E53" s="4">
-        <v>2022.0</v>
-      </c>
-      <c r="G53" s="5"/>
+        <v>2023.0</v>
+      </c>
       <c r="H53" s="5" t="s">
         <v>128</v>
       </c>
       <c r="I53" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="D54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2023.0</v>
+      </c>
+      <c r="H54" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="I54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="C55" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F56" s="4">
+      <c r="D55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="4">
         <v>2023.0</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="4" t="b">
+      <c r="H55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F57" s="4">
-        <v>2015.0</v>
+        <v>136</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2022.0</v>
       </c>
       <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="I57" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="4">
-        <v>2015.0</v>
+        <v>139</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2022.0</v>
       </c>
       <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="I58" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2022.0</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-    </row>
     <row r="61">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2023.0</v>
+      </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
+      <c r="I61" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2015.0</v>
+      </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
+      <c r="I62" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2015.0</v>
+      </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
+      <c r="I63" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
+      <c r="I64" s="4"/>
     </row>
     <row r="65">
       <c r="B65" s="5"/>
@@ -2635,38 +2835,38 @@
     <row r="103">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
     </row>
     <row r="104">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105">
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106">
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107">
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108">
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109">
       <c r="B109" s="9"/>
@@ -8355,6 +8555,36 @@
       <c r="C1056" s="9"/>
       <c r="G1056" s="9"/>
       <c r="H1056" s="9"/>
+    </row>
+    <row r="1057">
+      <c r="B1057" s="9"/>
+      <c r="C1057" s="9"/>
+      <c r="G1057" s="9"/>
+      <c r="H1057" s="9"/>
+    </row>
+    <row r="1058">
+      <c r="B1058" s="9"/>
+      <c r="C1058" s="9"/>
+      <c r="G1058" s="9"/>
+      <c r="H1058" s="9"/>
+    </row>
+    <row r="1059">
+      <c r="B1059" s="9"/>
+      <c r="C1059" s="9"/>
+      <c r="G1059" s="9"/>
+      <c r="H1059" s="9"/>
+    </row>
+    <row r="1060">
+      <c r="B1060" s="9"/>
+      <c r="C1060" s="9"/>
+      <c r="G1060" s="9"/>
+      <c r="H1060" s="9"/>
+    </row>
+    <row r="1061">
+      <c r="B1061" s="9"/>
+      <c r="C1061" s="9"/>
+      <c r="G1061" s="9"/>
+      <c r="H1061" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8377,10 +8607,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -8409,10 +8639,10 @@
     </row>
     <row r="2">
       <c r="A2" s="27" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -8441,7 +8671,7 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4">
         <v>5.0</v>
@@ -8449,7 +8679,7 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4">
         <v>4.5</v>
@@ -8457,7 +8687,7 @@
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -8465,7 +8695,7 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4">
         <v>4.0</v>
@@ -8473,7 +8703,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B7" s="4">
         <v>3.5</v>
@@ -8481,7 +8711,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4">
         <v>3.0</v>
@@ -8489,7 +8719,7 @@
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B9" s="4">
         <v>3.0</v>
@@ -8516,10 +8746,10 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
@@ -8551,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -8580,34 +8810,34 @@
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -11616,13 +11846,13 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -11654,65 +11884,65 @@
         <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
